--- a/Demos/Etk.Demos.Data/Etk.Demo.Templates.xlsx
+++ b/Demos/Etk.Demos.Data/Etk.Demo.Templates.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Etk\Etk-Github\Demos\Etk.Demo.Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8040"/>
   </bookViews>
@@ -20,17 +15,94 @@
     <definedName name="DEC_STATUS">#REF!</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+  <si>
+    <t>&lt;Header&gt;</t>
+  </si>
+  <si>
+    <t>Shops</t>
+  </si>
+  <si>
+    <t>&lt;/Header&gt;</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Reception Phone Number</t>
+  </si>
+  <si>
+    <t>&lt;EndTemplate Name='Main'/&gt;</t>
+  </si>
+  <si>
+    <t>{Ident}</t>
+  </si>
+  <si>
+    <t>{Name}</t>
+  </si>
+  <si>
+    <t>{{{Address} {City}}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {Phone}</t>
+  </si>
+  <si>
+    <t>&lt;Link To='CustomersMain' With='Customers'/&gt;</t>
+  </si>
+  <si>
+    <t>Customers</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Forename</t>
+  </si>
+  <si>
+    <t>Surname</t>
+  </si>
+  <si>
+    <t>&lt;EndTemplate Name='CustomersMain'/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Template Name='Main' BindingWith='Shop'/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Template Name='CustomersMain' BindingWith='Customer' /&gt;</t>
+  </si>
+  <si>
+    <t>{Id}</t>
+  </si>
+  <si>
+    <t>{Forename}</t>
+  </si>
+  <si>
+    <t>{Surname}</t>
+  </si>
+  <si>
+    <t>{{{Forename} {Surname}}}</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -38,16 +110,65 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -55,12 +176,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -339,20 +496,145 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="52.140625" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="82.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2"/>
+      <c r="B7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="B8" s="1"/>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="B14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B12:E12"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Demos/Etk.Demos.Data/Etk.Demo.Templates.xlsx
+++ b/Demos/Etk.Demos.Data/Etk.Demo.Templates.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Etk\Etk-Github\Demos\Etk.Demos.Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8040"/>
   </bookViews>
@@ -15,8 +20,8 @@
     <definedName name="DEC_STATUS">#REF!</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>&lt;Header&gt;</t>
   </si>
@@ -48,9 +53,6 @@
   </si>
   <si>
     <t>&lt;EndTemplate Name='Main'/&gt;</t>
-  </si>
-  <si>
-    <t>{Ident}</t>
   </si>
   <si>
     <t>{Name}</t>
@@ -101,8 +103,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -496,21 +498,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="52.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="52.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="82.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42.28515625" bestFit="1" customWidth="1"/>
@@ -520,15 +522,15 @@
     <col min="6" max="6" width="38" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -539,7 +541,7 @@
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -556,78 +558,78 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="E7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="D13" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>16</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="D14" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="E14" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="F14" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
